--- a/config_12.29/item_config.xlsx
+++ b/config_12.29/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3311,7 +3311,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3366,6 +3366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -3409,7 +3415,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3510,6 +3516,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3792,9 +3804,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8165,28 +8177,28 @@
       <c r="B132" s="2">
         <v>131</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="D132" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-      <c r="F132" s="5" t="s">
+      <c r="D132" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E132" s="35">
+        <v>1</v>
+      </c>
+      <c r="F132" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="35">
         <v>0</v>
       </c>
-      <c r="H132" s="2">
+      <c r="H132" s="35">
         <v>33</v>
       </c>
-      <c r="I132" s="5" t="s">
+      <c r="I132" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J132" s="5" t="s">
+      <c r="J132" s="34" t="s">
         <v>470</v>
       </c>
     </row>
@@ -8197,28 +8209,28 @@
       <c r="B133" s="2">
         <v>132</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="D133" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E133" s="2">
-        <v>1</v>
-      </c>
-      <c r="F133" s="5" t="s">
+      <c r="D133" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E133" s="35">
+        <v>1</v>
+      </c>
+      <c r="F133" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="35">
         <v>0</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H133" s="35">
         <v>33</v>
       </c>
-      <c r="I133" s="5" t="s">
+      <c r="I133" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J133" s="5" t="s">
+      <c r="J133" s="34" t="s">
         <v>471</v>
       </c>
     </row>
@@ -8229,28 +8241,28 @@
       <c r="B134" s="2">
         <v>133</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="D134" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E134" s="2">
-        <v>1</v>
-      </c>
-      <c r="F134" s="5" t="s">
+      <c r="D134" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E134" s="35">
+        <v>1</v>
+      </c>
+      <c r="F134" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="35">
         <v>0</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H134" s="35">
         <v>33</v>
       </c>
-      <c r="I134" s="5" t="s">
+      <c r="I134" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J134" s="5" t="s">
+      <c r="J134" s="34" t="s">
         <v>472</v>
       </c>
     </row>
@@ -8261,28 +8273,28 @@
       <c r="B135" s="2">
         <v>134</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="D135" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="5" t="s">
+      <c r="D135" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E135" s="35">
+        <v>1</v>
+      </c>
+      <c r="F135" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="35">
         <v>0</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H135" s="35">
         <v>33</v>
       </c>
-      <c r="I135" s="5" t="s">
+      <c r="I135" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J135" s="5" t="s">
+      <c r="J135" s="34" t="s">
         <v>473</v>
       </c>
     </row>
@@ -8293,28 +8305,28 @@
       <c r="B136" s="2">
         <v>135</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="D136" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-      <c r="F136" s="5" t="s">
+      <c r="D136" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E136" s="35">
+        <v>1</v>
+      </c>
+      <c r="F136" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="35">
         <v>0</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H136" s="35">
         <v>33</v>
       </c>
-      <c r="I136" s="5" t="s">
+      <c r="I136" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J136" s="5" t="s">
+      <c r="J136" s="34" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8325,28 +8337,28 @@
       <c r="B137" s="2">
         <v>136</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="D137" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-      <c r="F137" s="5" t="s">
+      <c r="D137" s="35">
+        <v>-1</v>
+      </c>
+      <c r="E137" s="35">
+        <v>1</v>
+      </c>
+      <c r="F137" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="35">
         <v>0</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H137" s="35">
         <v>33</v>
       </c>
-      <c r="I137" s="5" t="s">
+      <c r="I137" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137" s="34" t="s">
         <v>475</v>
       </c>
     </row>

--- a/config_12.29/item_config.xlsx
+++ b/config_12.29/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="833">
   <si>
     <t>id|行号</t>
   </si>
@@ -3228,11 +3228,27 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>用于福利券转盘中的福利转盘抽奖。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_yd_jyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>by_sd_icon_lh_1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>用于福利券转盘中的福利转盘抽奖。</t>
+    <t>hldz_iocn_jyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦活动——金元宝</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3802,11 +3818,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q288"/>
+  <dimension ref="A1:Q289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I289" sqref="I289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6407,7 +6423,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -13571,8 +13587,8 @@
       <c r="E288" s="13">
         <v>1</v>
       </c>
-      <c r="F288" s="13" t="s">
-        <v>827</v>
+      <c r="F288" s="33" t="s">
+        <v>829</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13585,6 +13601,38 @@
       </c>
       <c r="J288" s="33" t="s">
         <v>826</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="27">
+        <v>288</v>
+      </c>
+      <c r="B289" s="27">
+        <v>288</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>828</v>
+      </c>
+      <c r="D289" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E289" s="13">
+        <v>1</v>
+      </c>
+      <c r="F289" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="G289" s="13">
+        <v>0</v>
+      </c>
+      <c r="H289" s="13">
+        <v>33</v>
+      </c>
+      <c r="I289" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="J289" s="33" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.29/item_config.xlsx
+++ b/config_12.29/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="927">
   <si>
     <t>id|行号</t>
   </si>
@@ -2740,14 +2740,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>鱼苗碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>成熟鱼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fry1</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2764,10 +2756,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>鱼苗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_fishbowl_fish2</t>
   </si>
   <si>
@@ -3250,6 +3238,298 @@
   <si>
     <t>元旦活动——金元宝</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角鱼苗</t>
+  </si>
+  <si>
+    <t>小气泡鱼苗</t>
+  </si>
+  <si>
+    <t>小丑鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小燕鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小黄鳍鱼苗</t>
+  </si>
+  <si>
+    <t>小灯笼鱼苗</t>
+  </si>
+  <si>
+    <t>小旗鱼鱼苗</t>
+  </si>
+  <si>
+    <t>河豚鱼苗</t>
+  </si>
+  <si>
+    <t>小水母鱼苗</t>
+  </si>
+  <si>
+    <t>小章鱼鱼苗</t>
+  </si>
+  <si>
+    <t>小海龟鱼苗</t>
+  </si>
+  <si>
+    <t>狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>魔鬼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>虎鲸鱼苗</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼鱼苗</t>
+  </si>
+  <si>
+    <t>黄金海龟鱼苗</t>
+  </si>
+  <si>
+    <t>黄金河豚鱼苗</t>
+  </si>
+  <si>
+    <t>金蟾鱼苗</t>
+  </si>
+  <si>
+    <t>大金鲨鱼苗</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨鱼苗</t>
+  </si>
+  <si>
+    <t>闪电鱼鱼苗</t>
+  </si>
+  <si>
+    <t>美人鱼鱼苗</t>
+  </si>
+  <si>
+    <t>炽火龙王鱼苗</t>
+  </si>
+  <si>
+    <t>霸王蟹鱼苗</t>
+  </si>
+  <si>
+    <t>鲨鱼将军鱼苗</t>
+  </si>
+  <si>
+    <t>远古龙龟鱼苗</t>
+  </si>
+  <si>
+    <t>招财宝蟾鱼苗</t>
+  </si>
+  <si>
+    <t>深海狂鲨鱼苗</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼鱼苗</t>
+  </si>
+  <si>
+    <t>深海鲸鱼苗</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牛角碎片</t>
+  </si>
+  <si>
+    <t>小气泡碎片</t>
+  </si>
+  <si>
+    <t>小丑鱼碎片</t>
+  </si>
+  <si>
+    <t>小燕鱼碎片</t>
+  </si>
+  <si>
+    <t>小黄鳍碎片</t>
+  </si>
+  <si>
+    <t>小灯笼碎片</t>
+  </si>
+  <si>
+    <t>小旗鱼碎片</t>
+  </si>
+  <si>
+    <t>河豚碎片</t>
+  </si>
+  <si>
+    <t>小水母碎片</t>
+  </si>
+  <si>
+    <t>小章鱼碎片</t>
+  </si>
+  <si>
+    <t>小海龟碎片</t>
+  </si>
+  <si>
+    <t>狮子鱼碎片</t>
+  </si>
+  <si>
+    <t>魔鬼鱼碎片</t>
+  </si>
+  <si>
+    <t>虎鲸碎片</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼碎片</t>
+  </si>
+  <si>
+    <t>黄金海龟碎片</t>
+  </si>
+  <si>
+    <t>黄金河豚碎片</t>
+  </si>
+  <si>
+    <t>金蟾碎片</t>
+  </si>
+  <si>
+    <t>大金鲨碎片</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨碎片</t>
+  </si>
+  <si>
+    <t>闪电鱼碎片</t>
+  </si>
+  <si>
+    <t>美人鱼碎片</t>
+  </si>
+  <si>
+    <t>炽火龙王碎片</t>
+  </si>
+  <si>
+    <t>霸王蟹碎片</t>
+  </si>
+  <si>
+    <t>鲨鱼将军碎片</t>
+  </si>
+  <si>
+    <t>远古龙龟碎片</t>
+  </si>
+  <si>
+    <t>招财宝蟾碎片</t>
+  </si>
+  <si>
+    <t>深海狂鲨碎片</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼碎片</t>
+  </si>
+  <si>
+    <t>深海鲸碎片</t>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+  </si>
+  <si>
+    <t>河豚</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>虎鲸</t>
+  </si>
+  <si>
+    <t>黄金灯笼鱼</t>
+  </si>
+  <si>
+    <t>黄金炸弹鱼</t>
+  </si>
+  <si>
+    <t>黄金狮子鱼</t>
+  </si>
+  <si>
+    <t>黄金海龟</t>
+  </si>
+  <si>
+    <t>黄金河豚</t>
+  </si>
+  <si>
+    <t>金蟾</t>
+  </si>
+  <si>
+    <t>大金鲨</t>
+  </si>
+  <si>
+    <t>黄金锤头鲨</t>
+  </si>
+  <si>
+    <t>霸王蟹</t>
+  </si>
+  <si>
+    <t>鲨鱼将军</t>
+  </si>
+  <si>
+    <t>远古龙龟</t>
+  </si>
+  <si>
+    <t>招财宝蟾</t>
+  </si>
+  <si>
+    <t>深海狂鲨</t>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+  </si>
+  <si>
+    <t>深海鲸</t>
+  </si>
+  <si>
+    <t>小牛角</t>
+  </si>
+  <si>
+    <t>小气泡</t>
+  </si>
+  <si>
+    <t>小燕鱼</t>
+  </si>
+  <si>
+    <t>小黄鳍</t>
+  </si>
+  <si>
+    <t>小灯笼</t>
+  </si>
+  <si>
+    <t>小旗鱼</t>
+  </si>
+  <si>
+    <t>小水母</t>
+  </si>
+  <si>
+    <t>小章鱼</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>闪电鱼</t>
+  </si>
+  <si>
+    <t>美人鱼</t>
+  </si>
+  <si>
+    <t>炽火龙王</t>
   </si>
 </sst>
 </file>
@@ -3821,8 +4101,8 @@
   <dimension ref="A1:Q289"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I289" sqref="I289"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I253" sqref="I253:I284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6423,7 +6703,7 @@
         <v>426</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="L80" s="5"/>
     </row>
@@ -9983,7 +10263,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9992,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -10027,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="F186" s="28" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -10062,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="F187" s="28" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -10097,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="28" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -10123,7 +10403,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D189" s="27">
         <v>-1</v>
@@ -10132,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="F189" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -10141,10 +10421,10 @@
         <v>5</v>
       </c>
       <c r="I189" s="28" t="s">
-        <v>681</v>
+        <v>830</v>
       </c>
       <c r="J189" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N189" s="27">
         <v>16</v>
@@ -10158,7 +10438,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D190" s="27">
         <v>-1</v>
@@ -10167,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10176,10 +10456,10 @@
         <v>6</v>
       </c>
       <c r="I190" s="28" t="s">
-        <v>681</v>
+        <v>831</v>
       </c>
       <c r="J190" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N190" s="27">
         <v>16</v>
@@ -10193,7 +10473,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D191" s="27">
         <v>-1</v>
@@ -10202,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10211,10 +10491,10 @@
         <v>7</v>
       </c>
       <c r="I191" s="28" t="s">
-        <v>681</v>
+        <v>832</v>
       </c>
       <c r="J191" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N191" s="27">
         <v>16</v>
@@ -10228,7 +10508,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D192" s="27">
         <v>-1</v>
@@ -10237,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10246,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="I192" s="28" t="s">
-        <v>681</v>
+        <v>833</v>
       </c>
       <c r="J192" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N192" s="27">
         <v>16</v>
@@ -10263,7 +10543,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D193" s="27">
         <v>-1</v>
@@ -10272,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10281,10 +10561,10 @@
         <v>9</v>
       </c>
       <c r="I193" s="28" t="s">
-        <v>681</v>
+        <v>834</v>
       </c>
       <c r="J193" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N193" s="27">
         <v>16</v>
@@ -10298,7 +10578,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D194" s="27">
         <v>-1</v>
@@ -10307,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10316,10 +10596,10 @@
         <v>10</v>
       </c>
       <c r="I194" s="28" t="s">
-        <v>681</v>
+        <v>835</v>
       </c>
       <c r="J194" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N194" s="27">
         <v>16</v>
@@ -10333,7 +10613,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D195" s="27">
         <v>-1</v>
@@ -10342,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10351,10 +10631,10 @@
         <v>11</v>
       </c>
       <c r="I195" s="28" t="s">
-        <v>681</v>
+        <v>836</v>
       </c>
       <c r="J195" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N195" s="27">
         <v>16</v>
@@ -10368,7 +10648,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D196" s="27">
         <v>-1</v>
@@ -10377,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10386,10 +10666,10 @@
         <v>12</v>
       </c>
       <c r="I196" s="28" t="s">
-        <v>681</v>
+        <v>837</v>
       </c>
       <c r="J196" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N196" s="27">
         <v>16</v>
@@ -10403,7 +10683,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D197" s="27">
         <v>-1</v>
@@ -10412,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10421,10 +10701,10 @@
         <v>13</v>
       </c>
       <c r="I197" s="28" t="s">
-        <v>681</v>
+        <v>838</v>
       </c>
       <c r="J197" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N197" s="27">
         <v>16</v>
@@ -10438,7 +10718,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D198" s="27">
         <v>-1</v>
@@ -10447,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10456,10 +10736,10 @@
         <v>14</v>
       </c>
       <c r="I198" s="28" t="s">
-        <v>681</v>
+        <v>839</v>
       </c>
       <c r="J198" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N198" s="27">
         <v>16</v>
@@ -10473,7 +10753,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D199" s="27">
         <v>-1</v>
@@ -10482,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10491,10 +10771,10 @@
         <v>15</v>
       </c>
       <c r="I199" s="28" t="s">
-        <v>681</v>
+        <v>840</v>
       </c>
       <c r="J199" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N199" s="27">
         <v>16</v>
@@ -10508,7 +10788,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D200" s="27">
         <v>-1</v>
@@ -10517,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10526,10 +10806,10 @@
         <v>16</v>
       </c>
       <c r="I200" s="28" t="s">
-        <v>681</v>
+        <v>841</v>
       </c>
       <c r="J200" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N200" s="27">
         <v>16</v>
@@ -10543,7 +10823,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D201" s="27">
         <v>-1</v>
@@ -10552,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10561,10 +10841,10 @@
         <v>17</v>
       </c>
       <c r="I201" s="28" t="s">
-        <v>681</v>
+        <v>842</v>
       </c>
       <c r="J201" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N201" s="27">
         <v>16</v>
@@ -10578,7 +10858,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D202" s="27">
         <v>-1</v>
@@ -10587,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10596,10 +10876,10 @@
         <v>18</v>
       </c>
       <c r="I202" s="28" t="s">
-        <v>681</v>
+        <v>843</v>
       </c>
       <c r="J202" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N202" s="27">
         <v>16</v>
@@ -10613,7 +10893,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D203" s="27">
         <v>-1</v>
@@ -10622,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10631,10 +10911,10 @@
         <v>19</v>
       </c>
       <c r="I203" s="28" t="s">
-        <v>681</v>
+        <v>844</v>
       </c>
       <c r="J203" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N203" s="27">
         <v>16</v>
@@ -10648,7 +10928,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D204" s="27">
         <v>-1</v>
@@ -10657,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10666,10 +10946,10 @@
         <v>20</v>
       </c>
       <c r="I204" s="28" t="s">
-        <v>681</v>
+        <v>845</v>
       </c>
       <c r="J204" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N204" s="27">
         <v>16</v>
@@ -10683,7 +10963,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D205" s="27">
         <v>-1</v>
@@ -10692,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10701,10 +10981,10 @@
         <v>21</v>
       </c>
       <c r="I205" s="28" t="s">
-        <v>681</v>
+        <v>846</v>
       </c>
       <c r="J205" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N205" s="27">
         <v>16</v>
@@ -10718,7 +10998,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D206" s="27">
         <v>-1</v>
@@ -10727,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10736,10 +11016,10 @@
         <v>22</v>
       </c>
       <c r="I206" s="28" t="s">
-        <v>681</v>
+        <v>847</v>
       </c>
       <c r="J206" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N206" s="27">
         <v>16</v>
@@ -10753,7 +11033,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D207" s="27">
         <v>-1</v>
@@ -10762,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10771,10 +11051,10 @@
         <v>23</v>
       </c>
       <c r="I207" s="28" t="s">
-        <v>681</v>
+        <v>848</v>
       </c>
       <c r="J207" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N207" s="27">
         <v>16</v>
@@ -10788,7 +11068,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="28" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D208" s="27">
         <v>-1</v>
@@ -10797,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10806,10 +11086,10 @@
         <v>24</v>
       </c>
       <c r="I208" s="28" t="s">
-        <v>681</v>
+        <v>849</v>
       </c>
       <c r="J208" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N208" s="27">
         <v>16</v>
@@ -10823,7 +11103,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D209" s="27">
         <v>-1</v>
@@ -10832,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10841,10 +11121,10 @@
         <v>25</v>
       </c>
       <c r="I209" s="28" t="s">
-        <v>681</v>
+        <v>850</v>
       </c>
       <c r="J209" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N209" s="27">
         <v>16</v>
@@ -10858,7 +11138,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="28" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D210" s="27">
         <v>-1</v>
@@ -10867,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10876,10 +11156,10 @@
         <v>26</v>
       </c>
       <c r="I210" s="28" t="s">
-        <v>681</v>
+        <v>851</v>
       </c>
       <c r="J210" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N210" s="27">
         <v>16</v>
@@ -10893,7 +11173,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D211" s="27">
         <v>-1</v>
@@ -10902,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10911,10 +11191,10 @@
         <v>27</v>
       </c>
       <c r="I211" s="28" t="s">
-        <v>681</v>
+        <v>852</v>
       </c>
       <c r="J211" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N211" s="27">
         <v>16</v>
@@ -10928,7 +11208,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="28" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D212" s="27">
         <v>-1</v>
@@ -10937,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10946,10 +11226,10 @@
         <v>28</v>
       </c>
       <c r="I212" s="28" t="s">
-        <v>681</v>
+        <v>853</v>
       </c>
       <c r="J212" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N212" s="27">
         <v>16</v>
@@ -10963,7 +11243,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="28" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D213" s="27">
         <v>-1</v>
@@ -10972,7 +11252,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10981,10 +11261,10 @@
         <v>29</v>
       </c>
       <c r="I213" s="28" t="s">
-        <v>681</v>
+        <v>854</v>
       </c>
       <c r="J213" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N213" s="27">
         <v>16</v>
@@ -10998,7 +11278,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="28" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D214" s="27">
         <v>-1</v>
@@ -11007,7 +11287,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -11016,10 +11296,10 @@
         <v>30</v>
       </c>
       <c r="I214" s="28" t="s">
-        <v>681</v>
+        <v>855</v>
       </c>
       <c r="J214" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N214" s="27">
         <v>16</v>
@@ -11033,7 +11313,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D215" s="27">
         <v>-1</v>
@@ -11042,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -11051,10 +11331,10 @@
         <v>31</v>
       </c>
       <c r="I215" s="28" t="s">
-        <v>681</v>
+        <v>856</v>
       </c>
       <c r="J215" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N215" s="27">
         <v>16</v>
@@ -11068,7 +11348,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="28" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D216" s="27">
         <v>-1</v>
@@ -11077,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -11086,10 +11366,10 @@
         <v>32</v>
       </c>
       <c r="I216" s="28" t="s">
-        <v>681</v>
+        <v>857</v>
       </c>
       <c r="J216" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N216" s="27">
         <v>16</v>
@@ -11103,7 +11383,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="28" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D217" s="27">
         <v>-1</v>
@@ -11112,7 +11392,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -11121,10 +11401,10 @@
         <v>33</v>
       </c>
       <c r="I217" s="28" t="s">
-        <v>681</v>
+        <v>858</v>
       </c>
       <c r="J217" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N217" s="27">
         <v>16</v>
@@ -11138,7 +11418,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="28" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D218" s="27">
         <v>-1</v>
@@ -11147,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -11156,10 +11436,10 @@
         <v>34</v>
       </c>
       <c r="I218" s="28" t="s">
-        <v>681</v>
+        <v>859</v>
       </c>
       <c r="J218" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N218" s="27">
         <v>16</v>
@@ -11173,7 +11453,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -11182,7 +11462,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11191,10 +11471,10 @@
         <v>35</v>
       </c>
       <c r="I219" s="28" t="s">
-        <v>681</v>
+        <v>860</v>
       </c>
       <c r="J219" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N219" s="27">
         <v>16</v>
@@ -11208,7 +11488,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11217,7 +11497,7 @@
         <v>1</v>
       </c>
       <c r="F220" s="28" t="s">
-        <v>817</v>
+        <v>862</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
@@ -11226,10 +11506,10 @@
         <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>681</v>
+        <v>861</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11243,7 +11523,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="28" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11252,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="F221" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
@@ -11261,10 +11541,10 @@
         <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
-        <v>675</v>
+        <v>863</v>
       </c>
       <c r="J221" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N221" s="27">
         <v>16</v>
@@ -11278,7 +11558,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11287,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
@@ -11296,10 +11576,10 @@
         <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
-        <v>675</v>
+        <v>864</v>
       </c>
       <c r="J222" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N222" s="27">
         <v>16</v>
@@ -11313,7 +11593,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11322,7 +11602,7 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
@@ -11331,10 +11611,10 @@
         <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
-        <v>675</v>
+        <v>865</v>
       </c>
       <c r="J223" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N223" s="27">
         <v>16</v>
@@ -11348,7 +11628,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11357,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
@@ -11366,10 +11646,10 @@
         <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
-        <v>675</v>
+        <v>866</v>
       </c>
       <c r="J224" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N224" s="27">
         <v>16</v>
@@ -11383,7 +11663,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11392,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
@@ -11401,10 +11681,10 @@
         <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
-        <v>675</v>
+        <v>867</v>
       </c>
       <c r="J225" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N225" s="27">
         <v>16</v>
@@ -11418,7 +11698,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11427,7 +11707,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
@@ -11436,10 +11716,10 @@
         <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
-        <v>675</v>
+        <v>868</v>
       </c>
       <c r="J226" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N226" s="27">
         <v>16</v>
@@ -11453,7 +11733,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11462,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
@@ -11471,10 +11751,10 @@
         <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
-        <v>675</v>
+        <v>869</v>
       </c>
       <c r="J227" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N227" s="27">
         <v>16</v>
@@ -11488,7 +11768,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11497,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
@@ -11506,10 +11786,10 @@
         <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
-        <v>675</v>
+        <v>870</v>
       </c>
       <c r="J228" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N228" s="27">
         <v>16</v>
@@ -11523,7 +11803,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11532,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
@@ -11541,10 +11821,10 @@
         <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
-        <v>675</v>
+        <v>871</v>
       </c>
       <c r="J229" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N229" s="27">
         <v>16</v>
@@ -11558,7 +11838,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11567,7 +11847,7 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
@@ -11576,10 +11856,10 @@
         <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
-        <v>675</v>
+        <v>872</v>
       </c>
       <c r="J230" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N230" s="27">
         <v>16</v>
@@ -11593,7 +11873,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11602,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
@@ -11611,10 +11891,10 @@
         <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
-        <v>675</v>
+        <v>873</v>
       </c>
       <c r="J231" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N231" s="27">
         <v>16</v>
@@ -11628,7 +11908,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11637,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
@@ -11646,10 +11926,10 @@
         <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
-        <v>675</v>
+        <v>874</v>
       </c>
       <c r="J232" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N232" s="27">
         <v>16</v>
@@ -11663,7 +11943,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11672,7 +11952,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
@@ -11681,10 +11961,10 @@
         <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="J233" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N233" s="27">
         <v>16</v>
@@ -11698,7 +11978,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11707,7 +11987,7 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
@@ -11716,10 +11996,10 @@
         <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
-        <v>675</v>
+        <v>876</v>
       </c>
       <c r="J234" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N234" s="27">
         <v>16</v>
@@ -11733,7 +12013,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11742,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
@@ -11751,10 +12031,10 @@
         <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
-        <v>675</v>
+        <v>877</v>
       </c>
       <c r="J235" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N235" s="27">
         <v>16</v>
@@ -11768,7 +12048,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11777,7 +12057,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
@@ -11786,10 +12066,10 @@
         <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
-        <v>675</v>
+        <v>878</v>
       </c>
       <c r="J236" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N236" s="27">
         <v>16</v>
@@ -11803,7 +12083,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11812,7 +12092,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
@@ -11821,10 +12101,10 @@
         <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
-        <v>675</v>
+        <v>879</v>
       </c>
       <c r="J237" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N237" s="27">
         <v>16</v>
@@ -11838,7 +12118,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11847,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
@@ -11856,10 +12136,10 @@
         <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
-        <v>675</v>
+        <v>880</v>
       </c>
       <c r="J238" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N238" s="27">
         <v>16</v>
@@ -11873,7 +12153,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11882,7 +12162,7 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
@@ -11891,10 +12171,10 @@
         <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
-        <v>675</v>
+        <v>881</v>
       </c>
       <c r="J239" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N239" s="27">
         <v>16</v>
@@ -11908,7 +12188,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11917,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
@@ -11926,10 +12206,10 @@
         <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
-        <v>675</v>
+        <v>882</v>
       </c>
       <c r="J240" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N240" s="27">
         <v>16</v>
@@ -11943,7 +12223,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11952,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
@@ -11961,10 +12241,10 @@
         <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
-        <v>675</v>
+        <v>883</v>
       </c>
       <c r="J241" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N241" s="27">
         <v>16</v>
@@ -11978,7 +12258,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11987,7 +12267,7 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
@@ -11996,10 +12276,10 @@
         <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
-        <v>675</v>
+        <v>884</v>
       </c>
       <c r="J242" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N242" s="27">
         <v>16</v>
@@ -12013,7 +12293,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -12022,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
@@ -12031,10 +12311,10 @@
         <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
-        <v>675</v>
+        <v>885</v>
       </c>
       <c r="J243" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N243" s="27">
         <v>16</v>
@@ -12048,7 +12328,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -12057,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
@@ -12066,10 +12346,10 @@
         <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
-        <v>675</v>
+        <v>886</v>
       </c>
       <c r="J244" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N244" s="27">
         <v>16</v>
@@ -12083,7 +12363,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -12092,7 +12372,7 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
@@ -12101,10 +12381,10 @@
         <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
-        <v>675</v>
+        <v>887</v>
       </c>
       <c r="J245" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N245" s="27">
         <v>16</v>
@@ -12118,7 +12398,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -12127,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
@@ -12136,10 +12416,10 @@
         <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
-        <v>675</v>
+        <v>888</v>
       </c>
       <c r="J246" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N246" s="27">
         <v>16</v>
@@ -12153,7 +12433,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -12162,7 +12442,7 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
@@ -12171,10 +12451,10 @@
         <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
-        <v>675</v>
+        <v>889</v>
       </c>
       <c r="J247" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N247" s="27">
         <v>16</v>
@@ -12188,7 +12468,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12197,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
@@ -12206,10 +12486,10 @@
         <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
-        <v>675</v>
+        <v>890</v>
       </c>
       <c r="J248" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N248" s="27">
         <v>16</v>
@@ -12223,7 +12503,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12232,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
@@ -12241,10 +12521,10 @@
         <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
-        <v>675</v>
+        <v>891</v>
       </c>
       <c r="J249" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N249" s="27">
         <v>16</v>
@@ -12258,7 +12538,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12267,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
@@ -12276,10 +12556,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
-        <v>675</v>
+        <v>892</v>
       </c>
       <c r="J250" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N250" s="27">
         <v>16</v>
@@ -12293,7 +12573,7 @@
         <v>250</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12302,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
@@ -12311,10 +12591,10 @@
         <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>675</v>
+        <v>893</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12328,7 +12608,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12337,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="F252" s="28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
@@ -12346,10 +12626,10 @@
         <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>675</v>
+        <v>894</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12372,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="F253" s="28" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
@@ -12381,10 +12661,10 @@
         <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
-        <v>676</v>
+        <v>914</v>
       </c>
       <c r="J253" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N253" s="27">
         <v>16</v>
@@ -12398,7 +12678,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12407,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
@@ -12416,10 +12696,10 @@
         <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
-        <v>676</v>
+        <v>915</v>
       </c>
       <c r="J254" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N254" s="27">
         <v>16</v>
@@ -12433,7 +12713,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12442,7 +12722,7 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
@@ -12451,10 +12731,10 @@
         <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
-        <v>676</v>
+        <v>895</v>
       </c>
       <c r="J255" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N255" s="27">
         <v>16</v>
@@ -12468,7 +12748,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12477,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
@@ -12486,10 +12766,10 @@
         <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
-        <v>676</v>
+        <v>916</v>
       </c>
       <c r="J256" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N256" s="27">
         <v>16</v>
@@ -12503,7 +12783,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12512,7 +12792,7 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
@@ -12521,10 +12801,10 @@
         <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
-        <v>676</v>
+        <v>917</v>
       </c>
       <c r="J257" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N257" s="27">
         <v>16</v>
@@ -12538,7 +12818,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12547,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
@@ -12556,10 +12836,10 @@
         <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
-        <v>676</v>
+        <v>918</v>
       </c>
       <c r="J258" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N258" s="27">
         <v>16</v>
@@ -12573,7 +12853,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12582,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
@@ -12591,10 +12871,10 @@
         <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
-        <v>676</v>
+        <v>919</v>
       </c>
       <c r="J259" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N259" s="27">
         <v>16</v>
@@ -12608,7 +12888,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12617,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
@@ -12626,10 +12906,10 @@
         <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
-        <v>676</v>
+        <v>896</v>
       </c>
       <c r="J260" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N260" s="27">
         <v>16</v>
@@ -12643,7 +12923,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12652,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
@@ -12661,10 +12941,10 @@
         <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
-        <v>676</v>
+        <v>920</v>
       </c>
       <c r="J261" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N261" s="27">
         <v>16</v>
@@ -12678,7 +12958,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12687,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
@@ -12696,10 +12976,10 @@
         <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
-        <v>676</v>
+        <v>921</v>
       </c>
       <c r="J262" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N262" s="27">
         <v>16</v>
@@ -12713,7 +12993,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12722,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
@@ -12731,10 +13011,10 @@
         <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
-        <v>676</v>
+        <v>922</v>
       </c>
       <c r="J263" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N263" s="27">
         <v>16</v>
@@ -12748,7 +13028,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12757,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
@@ -12766,10 +13046,10 @@
         <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
-        <v>676</v>
+        <v>923</v>
       </c>
       <c r="J264" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N264" s="27">
         <v>16</v>
@@ -12783,7 +13063,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12792,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
@@ -12801,10 +13081,10 @@
         <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
-        <v>676</v>
+        <v>897</v>
       </c>
       <c r="J265" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N265" s="27">
         <v>16</v>
@@ -12818,7 +13098,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12827,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
@@ -12836,10 +13116,10 @@
         <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
-        <v>676</v>
+        <v>898</v>
       </c>
       <c r="J266" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N266" s="27">
         <v>16</v>
@@ -12853,7 +13133,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12862,7 +13142,7 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
@@ -12871,10 +13151,10 @@
         <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
-        <v>676</v>
+        <v>899</v>
       </c>
       <c r="J267" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N267" s="27">
         <v>16</v>
@@ -12888,7 +13168,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12897,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
@@ -12906,10 +13186,10 @@
         <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
-        <v>676</v>
+        <v>900</v>
       </c>
       <c r="J268" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N268" s="27">
         <v>16</v>
@@ -12923,7 +13203,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12932,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
@@ -12941,10 +13221,10 @@
         <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
-        <v>676</v>
+        <v>901</v>
       </c>
       <c r="J269" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N269" s="27">
         <v>16</v>
@@ -12958,7 +13238,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12967,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
@@ -12976,10 +13256,10 @@
         <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
-        <v>676</v>
+        <v>902</v>
       </c>
       <c r="J270" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N270" s="27">
         <v>16</v>
@@ -12993,7 +13273,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -13002,7 +13282,7 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
@@ -13011,10 +13291,10 @@
         <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
-        <v>676</v>
+        <v>903</v>
       </c>
       <c r="J271" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N271" s="27">
         <v>16</v>
@@ -13028,7 +13308,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -13037,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
@@ -13046,10 +13326,10 @@
         <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
-        <v>676</v>
+        <v>904</v>
       </c>
       <c r="J272" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N272" s="27">
         <v>16</v>
@@ -13063,7 +13343,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -13072,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
@@ -13081,10 +13361,10 @@
         <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
-        <v>676</v>
+        <v>905</v>
       </c>
       <c r="J273" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N273" s="27">
         <v>16</v>
@@ -13098,7 +13378,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -13107,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
@@ -13116,10 +13396,10 @@
         <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
-        <v>676</v>
+        <v>906</v>
       </c>
       <c r="J274" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N274" s="27">
         <v>16</v>
@@ -13133,7 +13413,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -13142,7 +13422,7 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
@@ -13151,10 +13431,10 @@
         <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
-        <v>676</v>
+        <v>924</v>
       </c>
       <c r="J275" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N275" s="27">
         <v>16</v>
@@ -13168,7 +13448,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -13177,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
@@ -13186,10 +13466,10 @@
         <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
-        <v>676</v>
+        <v>925</v>
       </c>
       <c r="J276" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N276" s="27">
         <v>16</v>
@@ -13203,7 +13483,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13212,7 +13492,7 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
@@ -13221,10 +13501,10 @@
         <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
-        <v>676</v>
+        <v>926</v>
       </c>
       <c r="J277" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N277" s="27">
         <v>16</v>
@@ -13238,7 +13518,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13247,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
@@ -13256,10 +13536,10 @@
         <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
-        <v>676</v>
+        <v>907</v>
       </c>
       <c r="J278" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N278" s="27">
         <v>16</v>
@@ -13273,7 +13553,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13282,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
@@ -13291,10 +13571,10 @@
         <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
-        <v>676</v>
+        <v>908</v>
       </c>
       <c r="J279" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N279" s="27">
         <v>16</v>
@@ -13308,7 +13588,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13317,7 +13597,7 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
@@ -13326,10 +13606,10 @@
         <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
-        <v>676</v>
+        <v>909</v>
       </c>
       <c r="J280" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N280" s="27">
         <v>16</v>
@@ -13343,7 +13623,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13352,7 +13632,7 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
@@ -13361,10 +13641,10 @@
         <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
-        <v>676</v>
+        <v>910</v>
       </c>
       <c r="J281" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N281" s="27">
         <v>16</v>
@@ -13378,7 +13658,7 @@
         <v>281</v>
       </c>
       <c r="C282" s="28" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D282" s="27">
         <v>-1</v>
@@ -13387,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="F282" s="27" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G282" s="27">
         <v>1</v>
@@ -13396,10 +13676,10 @@
         <v>98</v>
       </c>
       <c r="I282" s="28" t="s">
-        <v>676</v>
+        <v>911</v>
       </c>
       <c r="J282" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N282" s="27">
         <v>16</v>
@@ -13413,7 +13693,7 @@
         <v>282</v>
       </c>
       <c r="C283" s="28" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D283" s="27">
         <v>-1</v>
@@ -13422,7 +13702,7 @@
         <v>1</v>
       </c>
       <c r="F283" s="27" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G283" s="27">
         <v>1</v>
@@ -13431,10 +13711,10 @@
         <v>99</v>
       </c>
       <c r="I283" s="28" t="s">
-        <v>676</v>
+        <v>912</v>
       </c>
       <c r="J283" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N283" s="27">
         <v>16</v>
@@ -13448,7 +13728,7 @@
         <v>283</v>
       </c>
       <c r="C284" s="28" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D284" s="27">
         <v>-1</v>
@@ -13457,7 +13737,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="28" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="G284" s="27">
         <v>1</v>
@@ -13466,10 +13746,10 @@
         <v>99</v>
       </c>
       <c r="I284" s="28" t="s">
-        <v>676</v>
+        <v>913</v>
       </c>
       <c r="J284" s="28" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N284" s="27">
         <v>16</v>
@@ -13483,7 +13763,7 @@
         <v>284</v>
       </c>
       <c r="C285" s="30" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D285" s="29">
         <v>-1</v>
@@ -13492,7 +13772,7 @@
         <v>1</v>
       </c>
       <c r="F285" s="30" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="G285" s="29">
         <v>0</v>
@@ -13501,10 +13781,10 @@
         <v>33</v>
       </c>
       <c r="I285" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="J285" s="30" t="s">
         <v>773</v>
-      </c>
-      <c r="J285" s="30" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -13515,7 +13795,7 @@
         <v>285</v>
       </c>
       <c r="C286" s="30" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D286" s="29">
         <v>-1</v>
@@ -13533,10 +13813,10 @@
         <v>33</v>
       </c>
       <c r="I286" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="J286" s="29" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="287" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -13547,7 +13827,7 @@
         <v>286</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D287" s="31">
         <v>-1</v>
@@ -13556,7 +13836,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="31" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G287" s="31">
         <v>0</v>
@@ -13565,10 +13845,10 @@
         <v>33</v>
       </c>
       <c r="I287" s="31" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="J287" s="31" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="288" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13579,7 +13859,7 @@
         <v>287</v>
       </c>
       <c r="C288" s="33" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D288" s="13">
         <v>-1</v>
@@ -13588,7 +13868,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="33" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G288" s="13">
         <v>0</v>
@@ -13597,10 +13877,10 @@
         <v>33</v>
       </c>
       <c r="I288" s="33" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="J288" s="33" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="289" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -13611,7 +13891,7 @@
         <v>288</v>
       </c>
       <c r="C289" s="33" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D289" s="13">
         <v>-1</v>
@@ -13620,7 +13900,7 @@
         <v>1</v>
       </c>
       <c r="F289" s="33" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G289" s="13">
         <v>0</v>
@@ -13629,10 +13909,10 @@
         <v>33</v>
       </c>
       <c r="I289" s="33" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="J289" s="33" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
